--- a/natmiOut/OldD7/LR-pairs_lrc2p/Hp-Itgb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Hp-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Hp</t>
   </si>
   <si>
     <t>Itgb2</t>
   </si>
   <si>
-    <t>M2</t>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.65393527223785</v>
+        <v>0.128414</v>
       </c>
       <c r="H2">
-        <v>5.65393527223785</v>
+        <v>0.385242</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0205607169378674</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0205607169378674</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.462745182311199</v>
+        <v>0.1087903333333333</v>
       </c>
       <c r="N2">
-        <v>0.462745182311199</v>
+        <v>0.326371</v>
       </c>
       <c r="O2">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="P2">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="Q2">
-        <v>2.616331308327422</v>
+        <v>0.01397020186466666</v>
       </c>
       <c r="R2">
-        <v>2.616331308327422</v>
+        <v>0.125731816782</v>
       </c>
       <c r="S2">
-        <v>0.007989275687980345</v>
+        <v>3.351723188025213E-05</v>
       </c>
       <c r="T2">
-        <v>0.007989275687980345</v>
+        <v>3.351723188025213E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +584,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.128414</v>
+      </c>
+      <c r="H3">
+        <v>0.385242</v>
+      </c>
+      <c r="I3">
+        <v>0.0205607169378674</v>
+      </c>
+      <c r="J3">
+        <v>0.0205607169378674</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.467525</v>
+      </c>
+      <c r="N3">
+        <v>1.402575</v>
+      </c>
+      <c r="O3">
+        <v>0.007005585233201815</v>
+      </c>
+      <c r="P3">
+        <v>0.007005585233201814</v>
+      </c>
+      <c r="Q3">
+        <v>0.06003675535000001</v>
+      </c>
+      <c r="R3">
+        <v>0.54033079815</v>
+      </c>
+      <c r="S3">
+        <v>0.0001440398549639663</v>
+      </c>
+      <c r="T3">
+        <v>0.0001440398549639663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.128414</v>
+      </c>
+      <c r="H4">
+        <v>0.385242</v>
+      </c>
+      <c r="I4">
+        <v>0.0205607169378674</v>
+      </c>
+      <c r="J4">
+        <v>0.0205607169378674</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>65.34528366666666</v>
+      </c>
+      <c r="N4">
+        <v>196.035851</v>
+      </c>
+      <c r="O4">
+        <v>0.9791603749844046</v>
+      </c>
+      <c r="P4">
+        <v>0.9791603749844042</v>
+      </c>
+      <c r="Q4">
+        <v>8.391249256771333</v>
+      </c>
+      <c r="R4">
+        <v>75.52124331094198</v>
+      </c>
+      <c r="S4">
+        <v>0.02013223930683044</v>
+      </c>
+      <c r="T4">
+        <v>0.02013223930683043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5.65393527223785</v>
-      </c>
-      <c r="H3">
-        <v>5.65393527223785</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>57.4580476884852</v>
-      </c>
-      <c r="N3">
-        <v>57.4580476884852</v>
-      </c>
-      <c r="O3">
-        <v>0.9920107243120196</v>
-      </c>
-      <c r="P3">
-        <v>0.9920107243120196</v>
-      </c>
-      <c r="Q3">
-        <v>324.864082499851</v>
-      </c>
-      <c r="R3">
-        <v>324.864082499851</v>
-      </c>
-      <c r="S3">
-        <v>0.9920107243120196</v>
-      </c>
-      <c r="T3">
-        <v>0.9920107243120196</v>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.128414</v>
+      </c>
+      <c r="H5">
+        <v>0.385242</v>
+      </c>
+      <c r="I5">
+        <v>0.0205607169378674</v>
+      </c>
+      <c r="J5">
+        <v>0.0205607169378674</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.8144386666666666</v>
+      </c>
+      <c r="N5">
+        <v>2.443316</v>
+      </c>
+      <c r="O5">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="P5">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="Q5">
+        <v>0.1045853269413333</v>
+      </c>
+      <c r="R5">
+        <v>0.9412679424719999</v>
+      </c>
+      <c r="S5">
+        <v>0.0002509205441927443</v>
+      </c>
+      <c r="T5">
+        <v>0.0002509205441927442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.810518333333333</v>
+      </c>
+      <c r="H6">
+        <v>17.431555</v>
+      </c>
+      <c r="I6">
+        <v>0.930337990514708</v>
+      </c>
+      <c r="J6">
+        <v>0.930337990514708</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1087903333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.326371</v>
+      </c>
+      <c r="O6">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="P6">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="Q6">
+        <v>0.6321282263227778</v>
+      </c>
+      <c r="R6">
+        <v>5.689154036904999</v>
+      </c>
+      <c r="S6">
+        <v>0.001516598582107788</v>
+      </c>
+      <c r="T6">
+        <v>0.001516598582107788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.810518333333333</v>
+      </c>
+      <c r="H7">
+        <v>17.431555</v>
+      </c>
+      <c r="I7">
+        <v>0.930337990514708</v>
+      </c>
+      <c r="J7">
+        <v>0.930337990514708</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.467525</v>
+      </c>
+      <c r="N7">
+        <v>1.402575</v>
+      </c>
+      <c r="O7">
+        <v>0.007005585233201815</v>
+      </c>
+      <c r="P7">
+        <v>0.007005585233201814</v>
+      </c>
+      <c r="Q7">
+        <v>2.716562583791667</v>
+      </c>
+      <c r="R7">
+        <v>24.449063254125</v>
+      </c>
+      <c r="S7">
+        <v>0.006517562088236489</v>
+      </c>
+      <c r="T7">
+        <v>0.006517562088236488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.810518333333333</v>
+      </c>
+      <c r="H8">
+        <v>17.431555</v>
+      </c>
+      <c r="I8">
+        <v>0.930337990514708</v>
+      </c>
+      <c r="J8">
+        <v>0.930337990514708</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>65.34528366666666</v>
+      </c>
+      <c r="N8">
+        <v>196.035851</v>
+      </c>
+      <c r="O8">
+        <v>0.9791603749844046</v>
+      </c>
+      <c r="P8">
+        <v>0.9791603749844042</v>
+      </c>
+      <c r="Q8">
+        <v>379.6899687420338</v>
+      </c>
+      <c r="R8">
+        <v>3417.209718678304</v>
+      </c>
+      <c r="S8">
+        <v>0.9109500956546189</v>
+      </c>
+      <c r="T8">
+        <v>0.9109500956546186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.810518333333333</v>
+      </c>
+      <c r="H9">
+        <v>17.431555</v>
+      </c>
+      <c r="I9">
+        <v>0.930337990514708</v>
+      </c>
+      <c r="J9">
+        <v>0.930337990514708</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.8144386666666666</v>
+      </c>
+      <c r="N9">
+        <v>2.443316</v>
+      </c>
+      <c r="O9">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="P9">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="Q9">
+        <v>4.732310804042222</v>
+      </c>
+      <c r="R9">
+        <v>42.59079723638</v>
+      </c>
+      <c r="S9">
+        <v>0.01135373418974502</v>
+      </c>
+      <c r="T9">
+        <v>0.01135373418974502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.306667</v>
+      </c>
+      <c r="H10">
+        <v>0.9200010000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.04910129254742459</v>
+      </c>
+      <c r="J10">
+        <v>0.0491012925474246</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1087903333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.326371</v>
+      </c>
+      <c r="O10">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="P10">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="Q10">
+        <v>0.03336240515233333</v>
+      </c>
+      <c r="R10">
+        <v>0.300261646371</v>
+      </c>
+      <c r="S10">
+        <v>8.004289990983289E-05</v>
+      </c>
+      <c r="T10">
+        <v>8.004289990983288E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.306667</v>
+      </c>
+      <c r="H11">
+        <v>0.9200010000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.04910129254742459</v>
+      </c>
+      <c r="J11">
+        <v>0.0491012925474246</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.467525</v>
+      </c>
+      <c r="N11">
+        <v>1.402575</v>
+      </c>
+      <c r="O11">
+        <v>0.007005585233201815</v>
+      </c>
+      <c r="P11">
+        <v>0.007005585233201814</v>
+      </c>
+      <c r="Q11">
+        <v>0.143374489175</v>
+      </c>
+      <c r="R11">
+        <v>1.290370402575</v>
+      </c>
+      <c r="S11">
+        <v>0.0003439832900013601</v>
+      </c>
+      <c r="T11">
+        <v>0.00034398329000136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.306667</v>
+      </c>
+      <c r="H12">
+        <v>0.9200010000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.04910129254742459</v>
+      </c>
+      <c r="J12">
+        <v>0.0491012925474246</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>65.34528366666666</v>
+      </c>
+      <c r="N12">
+        <v>196.035851</v>
+      </c>
+      <c r="O12">
+        <v>0.9791603749844046</v>
+      </c>
+      <c r="P12">
+        <v>0.9791603749844042</v>
+      </c>
+      <c r="Q12">
+        <v>20.03924210620567</v>
+      </c>
+      <c r="R12">
+        <v>180.353178955851</v>
+      </c>
+      <c r="S12">
+        <v>0.04807804002295521</v>
+      </c>
+      <c r="T12">
+        <v>0.0480780400229552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.306667</v>
+      </c>
+      <c r="H13">
+        <v>0.9200010000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.04910129254742459</v>
+      </c>
+      <c r="J13">
+        <v>0.0491012925474246</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.8144386666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.443316</v>
+      </c>
+      <c r="O13">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="P13">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="Q13">
+        <v>0.2497614625906667</v>
+      </c>
+      <c r="R13">
+        <v>2.247853163316</v>
+      </c>
+      <c r="S13">
+        <v>0.0005992263345581969</v>
+      </c>
+      <c r="T13">
+        <v>0.0005992263345581968</v>
       </c>
     </row>
   </sheetData>
